--- a/results/experiments/inference_stage_experiment_results_binary.xlsx
+++ b/results/experiments/inference_stage_experiment_results_binary.xlsx
@@ -545,40 +545,40 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H2" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K2" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L2" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P2" t="n">
         <v>0.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="3">
@@ -601,40 +601,40 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H3" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K3" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L3" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P3" t="n">
         <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="4">
@@ -657,40 +657,40 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H4" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K4" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L4" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P4" t="n">
         <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="5">
@@ -713,40 +713,40 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H5" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K5" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L5" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P5" t="n">
         <v>0.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="6">
@@ -769,40 +769,40 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H6" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K6" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L6" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P6" t="n">
         <v>0.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="7">
@@ -825,40 +825,40 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H7" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K7" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L7" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P7" t="n">
         <v>0.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="8">
@@ -881,40 +881,40 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H8" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K8" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L8" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P8" t="n">
         <v>0.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="9">
@@ -937,40 +937,40 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H9" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K9" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L9" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P9" t="n">
         <v>0.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="10">
@@ -993,40 +993,40 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H10" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K10" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L10" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P10" t="n">
         <v>0.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="11">
@@ -1049,40 +1049,40 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H11" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K11" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L11" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P11" t="n">
         <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="12">
@@ -1105,40 +1105,40 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H12" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K12" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L12" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P12" t="n">
         <v>0.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="13">
@@ -1161,40 +1161,40 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H13" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K13" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L13" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P13" t="n">
         <v>0.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="14">
@@ -1217,40 +1217,40 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H14" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K14" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L14" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P14" t="n">
         <v>0.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="15">
@@ -1273,40 +1273,40 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H15" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K15" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L15" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P15" t="n">
         <v>0.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="16">
@@ -1329,40 +1329,40 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H16" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K16" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L16" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P16" t="n">
         <v>0.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="17">
@@ -1385,40 +1385,40 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H17" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K17" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L17" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P17" t="n">
         <v>0.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="18">
@@ -1441,40 +1441,40 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H18" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K18" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L18" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P18" t="n">
         <v>0.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="19">
@@ -1497,40 +1497,40 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H19" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K19" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L19" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P19" t="n">
         <v>0.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="20">
@@ -1553,40 +1553,40 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>9.100733218725615</v>
+        <v>9.11679772108792</v>
       </c>
       <c r="H20" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K20" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L20" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.212678005128987</v>
+        <v>0.2128369808351815</v>
       </c>
       <c r="P20" t="n">
         <v>0.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1190784006922885</v>
+        <v>0.1192466022162667</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3216926155034988</v>
+        <v>0.3218181183778166</v>
       </c>
     </row>
     <row r="21">
@@ -1609,40 +1609,40 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>10.88496517656429</v>
+        <v>10.87219336254274</v>
       </c>
       <c r="H21" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K21" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L21" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2441923854191159</v>
+        <v>0.2438255679223048</v>
       </c>
       <c r="P21" t="n">
         <v>0.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1463557689163288</v>
+        <v>0.1460675448567168</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3552091836350401</v>
+        <v>0.354778187583548</v>
       </c>
     </row>
     <row r="22">
@@ -1665,40 +1665,40 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H22" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K22" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L22" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P22" t="n">
         <v>0.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="23">
@@ -1721,40 +1721,40 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H23" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K23" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L23" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P23" t="n">
         <v>0.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="24">
@@ -1777,40 +1777,40 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H24" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K24" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L24" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P24" t="n">
         <v>0.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="25">
@@ -1833,40 +1833,40 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H25" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K25" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L25" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P25" t="n">
         <v>0.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="26">
@@ -1889,40 +1889,40 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H26" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K26" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L26" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P26" t="n">
         <v>0.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="27">
@@ -1945,40 +1945,40 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H27" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K27" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L27" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M27" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P27" t="n">
         <v>0.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="28">
@@ -2001,40 +2001,40 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H28" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K28" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L28" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M28" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P28" t="n">
         <v>0.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="29">
@@ -2057,40 +2057,40 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H29" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K29" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L29" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M29" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P29" t="n">
         <v>0.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="30">
@@ -2113,40 +2113,40 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H30" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K30" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L30" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M30" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P30" t="n">
         <v>0.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="31">
@@ -2169,40 +2169,40 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H31" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K31" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L31" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M31" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P31" t="n">
         <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="32">
@@ -2225,40 +2225,40 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H32" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K32" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L32" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M32" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P32" t="n">
         <v>0.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="33">
@@ -2281,40 +2281,40 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H33" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K33" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L33" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M33" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P33" t="n">
         <v>0.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="34">
@@ -2337,40 +2337,40 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H34" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K34" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L34" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M34" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P34" t="n">
         <v>0.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="35">
@@ -2393,40 +2393,40 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H35" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K35" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L35" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M35" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P35" t="n">
         <v>0.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="36">
@@ -2449,40 +2449,40 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H36" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K36" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L36" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M36" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P36" t="n">
         <v>0.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="37">
@@ -2505,40 +2505,40 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H37" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K37" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L37" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M37" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P37" t="n">
         <v>0.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="38">
@@ -2561,40 +2561,40 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H38" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K38" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L38" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M38" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P38" t="n">
         <v>0.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="39">
@@ -2617,40 +2617,40 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H39" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K39" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L39" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M39" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P39" t="n">
         <v>0.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="40">
@@ -2673,40 +2673,40 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>12.67811829419216</v>
+        <v>12.62758900399756</v>
       </c>
       <c r="H40" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K40" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L40" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M40" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.2734208097815832</v>
+        <v>0.2724666865883724</v>
       </c>
       <c r="P40" t="n">
         <v>0.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.1726466484239941</v>
+        <v>0.1718121513582656</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3854192357111522</v>
+        <v>0.3843982581763076</v>
       </c>
     </row>
     <row r="41">
@@ -2729,40 +2729,40 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>14.48023717740816</v>
+        <v>14.38298464545237</v>
       </c>
       <c r="H41" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K41" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L41" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M41" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.3006029711243322</v>
+        <v>0.299017342909074</v>
       </c>
       <c r="P41" t="n">
         <v>0.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.1978594866137413</v>
+        <v>0.1964086758769193</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4128544623999376</v>
+        <v>0.4112234967259983</v>
       </c>
     </row>
     <row r="42">
@@ -2785,40 +2785,40 @@
         <v>-1</v>
       </c>
       <c r="G42" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H42" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K42" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L42" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M42" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P42" t="n">
         <v>0.1</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="43">
@@ -2841,40 +2841,40 @@
         <v>-1</v>
       </c>
       <c r="G43" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H43" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K43" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L43" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M43" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P43" t="n">
         <v>0.1</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="44">
@@ -2897,40 +2897,40 @@
         <v>-1</v>
       </c>
       <c r="G44" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H44" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K44" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L44" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M44" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P44" t="n">
         <v>0.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="45">
@@ -2953,40 +2953,40 @@
         <v>-1</v>
       </c>
       <c r="G45" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H45" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K45" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L45" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M45" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P45" t="n">
         <v>0.1</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="46">
@@ -3009,40 +3009,40 @@
         <v>-1</v>
       </c>
       <c r="G46" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H46" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K46" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L46" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M46" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P46" t="n">
         <v>0.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="47">
@@ -3065,40 +3065,40 @@
         <v>-1</v>
       </c>
       <c r="G47" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H47" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K47" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L47" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M47" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P47" t="n">
         <v>0.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="48">
@@ -3121,40 +3121,40 @@
         <v>-1</v>
       </c>
       <c r="G48" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H48" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K48" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L48" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M48" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P48" t="n">
         <v>0.1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R48" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="49">
@@ -3177,40 +3177,40 @@
         <v>-1</v>
       </c>
       <c r="G49" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H49" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K49" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L49" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M49" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P49" t="n">
         <v>0.1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="50">
@@ -3233,40 +3233,40 @@
         <v>-1</v>
       </c>
       <c r="G50" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H50" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K50" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L50" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M50" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P50" t="n">
         <v>0.1</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R50" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="51">
@@ -3289,40 +3289,40 @@
         <v>-1</v>
       </c>
       <c r="G51" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H51" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K51" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L51" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M51" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P51" t="n">
         <v>0.1</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="52">
@@ -3345,40 +3345,40 @@
         <v>-1</v>
       </c>
       <c r="G52" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H52" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K52" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L52" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M52" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P52" t="n">
         <v>0.1</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R52" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="53">
@@ -3401,40 +3401,40 @@
         <v>-1</v>
       </c>
       <c r="G53" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H53" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K53" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L53" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M53" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P53" t="n">
         <v>0.1</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R53" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="54">
@@ -3457,40 +3457,40 @@
         <v>-1</v>
       </c>
       <c r="G54" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H54" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K54" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L54" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M54" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P54" t="n">
         <v>0.1</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R54" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="55">
@@ -3513,40 +3513,40 @@
         <v>-1</v>
       </c>
       <c r="G55" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H55" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K55" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L55" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M55" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P55" t="n">
         <v>0.1</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R55" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="56">
@@ -3569,40 +3569,40 @@
         <v>-1</v>
       </c>
       <c r="G56" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H56" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K56" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L56" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M56" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P56" t="n">
         <v>0.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R56" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="57">
@@ -3625,40 +3625,40 @@
         <v>-1</v>
       </c>
       <c r="G57" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H57" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K57" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L57" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M57" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P57" t="n">
         <v>0.1</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R57" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="58">
@@ -3681,40 +3681,40 @@
         <v>-1</v>
       </c>
       <c r="G58" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H58" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K58" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L58" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M58" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P58" t="n">
         <v>0.1</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="59">
@@ -3737,40 +3737,40 @@
         <v>-1</v>
       </c>
       <c r="G59" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H59" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K59" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L59" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M59" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P59" t="n">
         <v>0.1</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R59" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="60">
@@ -3793,40 +3793,40 @@
         <v>-1</v>
       </c>
       <c r="G60" t="n">
-        <v>16.29136665504025</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H60" t="n">
-        <v>33.69040173294047</v>
+        <v>33.71785293648679</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K60" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L60" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M60" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.3259461835879718</v>
+        <v>0.3236983470972412</v>
       </c>
       <c r="P60" t="n">
         <v>0.1</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.2219690683667973</v>
+        <v>0.2198480983759781</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4379212343308926</v>
+        <v>0.4356702591341593</v>
       </c>
     </row>
     <row r="61">
@@ -3849,40 +3849,40 @@
         <v>-1</v>
       </c>
       <c r="G61" t="n">
-        <v>16.36408616021622</v>
+        <v>16.13838028690719</v>
       </c>
       <c r="H61" t="n">
-        <v>39.07116924464055</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K61" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L61" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M61" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0.2951927620916587</v>
+        <v>0.2917663000269475</v>
       </c>
       <c r="P61" t="n">
         <v>0.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.1996144293846977</v>
+        <v>0.1965073907011811</v>
       </c>
       <c r="R61" t="n">
-        <v>0.3992460346171701</v>
+        <v>0.3956608887651157</v>
       </c>
     </row>
     <row r="62">
@@ -3905,40 +3905,40 @@
         <v>-1</v>
       </c>
       <c r="G62" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H62" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K62" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L62" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M62" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P62" t="n">
         <v>0.1</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R62" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="63">
@@ -3961,40 +3961,40 @@
         <v>-1</v>
       </c>
       <c r="G63" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H63" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K63" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L63" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M63" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P63" t="n">
         <v>0.1</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R63" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="64">
@@ -4017,40 +4017,40 @@
         <v>-1</v>
       </c>
       <c r="G64" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H64" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K64" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L64" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M64" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P64" t="n">
         <v>0.1</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R64" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="65">
@@ -4073,40 +4073,40 @@
         <v>-1</v>
       </c>
       <c r="G65" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H65" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K65" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L65" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M65" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P65" t="n">
         <v>0.1</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R65" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="66">
@@ -4129,40 +4129,40 @@
         <v>-1</v>
       </c>
       <c r="G66" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H66" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K66" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L66" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M66" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P66" t="n">
         <v>0.1</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R66" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="67">
@@ -4185,40 +4185,40 @@
         <v>-1</v>
       </c>
       <c r="G67" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H67" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K67" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L67" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M67" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P67" t="n">
         <v>0.1</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R67" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="68">
@@ -4241,40 +4241,40 @@
         <v>-1</v>
       </c>
       <c r="G68" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H68" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K68" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L68" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M68" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P68" t="n">
         <v>0.1</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R68" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="69">
@@ -4297,40 +4297,40 @@
         <v>-1</v>
       </c>
       <c r="G69" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H69" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K69" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L69" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M69" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P69" t="n">
         <v>0.1</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R69" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="70">
@@ -4353,40 +4353,40 @@
         <v>-1</v>
       </c>
       <c r="G70" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H70" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K70" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L70" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M70" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P70" t="n">
         <v>0.1</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R70" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="71">
@@ -4409,40 +4409,40 @@
         <v>-1</v>
       </c>
       <c r="G71" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H71" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K71" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L71" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M71" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P71" t="n">
         <v>0.1</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R71" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="72">
@@ -4465,40 +4465,40 @@
         <v>-1</v>
       </c>
       <c r="G72" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H72" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K72" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L72" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M72" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P72" t="n">
         <v>0.1</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R72" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="73">
@@ -4521,40 +4521,40 @@
         <v>-1</v>
       </c>
       <c r="G73" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H73" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K73" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L73" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M73" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P73" t="n">
         <v>0.1</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R73" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="74">
@@ -4577,40 +4577,40 @@
         <v>-1</v>
       </c>
       <c r="G74" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H74" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K74" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L74" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M74" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P74" t="n">
         <v>0.1</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R74" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="75">
@@ -4633,40 +4633,40 @@
         <v>-1</v>
       </c>
       <c r="G75" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H75" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K75" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L75" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M75" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P75" t="n">
         <v>0.1</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R75" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="76">
@@ -4689,40 +4689,40 @@
         <v>-1</v>
       </c>
       <c r="G76" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H76" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K76" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L76" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M76" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P76" t="n">
         <v>0.1</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R76" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="77">
@@ -4745,40 +4745,40 @@
         <v>-1</v>
       </c>
       <c r="G77" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H77" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K77" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L77" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M77" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P77" t="n">
         <v>0.1</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R77" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="78">
@@ -4801,40 +4801,40 @@
         <v>-1</v>
       </c>
       <c r="G78" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H78" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K78" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L78" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M78" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P78" t="n">
         <v>0.1</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R78" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="79">
@@ -4857,40 +4857,40 @@
         <v>-1</v>
       </c>
       <c r="G79" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H79" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K79" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L79" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M79" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P79" t="n">
         <v>0.1</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R79" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="80">
@@ -4913,40 +4913,40 @@
         <v>-1</v>
       </c>
       <c r="G80" t="n">
-        <v>18.11155178006049</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H80" t="n">
-        <v>39.23962125330525</v>
+        <v>39.17431444657181</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K80" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L80" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M80" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0.3158008951189815</v>
+        <v>0.3135513350946389</v>
       </c>
       <c r="P80" t="n">
         <v>0.1</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.2194083534611007</v>
+        <v>0.2171763439343133</v>
       </c>
       <c r="R80" t="n">
-        <v>0.419560240778062</v>
+        <v>0.4174202605154276</v>
       </c>
     </row>
     <row r="81">
@@ -4969,40 +4969,40 @@
         <v>-1</v>
       </c>
       <c r="G81" t="n">
-        <v>18.19337221086157</v>
+        <v>17.89377592836201</v>
       </c>
       <c r="H81" t="n">
-        <v>44.62038876500534</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K81" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L81" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M81" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0.2896399121500061</v>
+        <v>0.2861879915791837</v>
       </c>
       <c r="P81" t="n">
         <v>0.1</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.2001325676687619</v>
+        <v>0.196889361036699</v>
       </c>
       <c r="R81" t="n">
-        <v>0.3868214515516314</v>
+        <v>0.383322842625431</v>
       </c>
     </row>
     <row r="82">
@@ -5025,40 +5025,40 @@
         <v>-1</v>
       </c>
       <c r="G82" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H82" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J82" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K82" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L82" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M82" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P82" t="n">
         <v>0.1</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R82" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="83">
@@ -5081,40 +5081,40 @@
         <v>-1</v>
       </c>
       <c r="G83" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H83" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K83" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L83" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M83" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P83" t="n">
         <v>0.1</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R83" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="84">
@@ -5137,40 +5137,40 @@
         <v>-1</v>
       </c>
       <c r="G84" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H84" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K84" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L84" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M84" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P84" t="n">
         <v>0.1</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R84" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="85">
@@ -5193,40 +5193,40 @@
         <v>-1</v>
       </c>
       <c r="G85" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H85" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K85" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L85" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M85" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P85" t="n">
         <v>0.1</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R85" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="86">
@@ -5249,40 +5249,40 @@
         <v>-1</v>
       </c>
       <c r="G86" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H86" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K86" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L86" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M86" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P86" t="n">
         <v>0.1</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R86" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="87">
@@ -5305,40 +5305,40 @@
         <v>-1</v>
       </c>
       <c r="G87" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H87" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K87" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L87" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M87" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P87" t="n">
         <v>0.1</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R87" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="88">
@@ -5361,40 +5361,40 @@
         <v>-1</v>
       </c>
       <c r="G88" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H88" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K88" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L88" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M88" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P88" t="n">
         <v>0.1</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R88" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="89">
@@ -5417,40 +5417,40 @@
         <v>-1</v>
       </c>
       <c r="G89" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H89" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K89" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L89" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M89" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P89" t="n">
         <v>0.1</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R89" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="90">
@@ -5473,40 +5473,40 @@
         <v>-1</v>
       </c>
       <c r="G90" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H90" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K90" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L90" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M90" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P90" t="n">
         <v>0.1</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R90" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="91">
@@ -5529,40 +5529,40 @@
         <v>-1</v>
       </c>
       <c r="G91" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H91" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K91" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L91" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M91" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P91" t="n">
         <v>0.1</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R91" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="92">
@@ -5585,40 +5585,40 @@
         <v>-1</v>
       </c>
       <c r="G92" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H92" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J92" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K92" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L92" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M92" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P92" t="n">
         <v>0.1</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R92" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="93">
@@ -5641,40 +5641,40 @@
         <v>-1</v>
       </c>
       <c r="G93" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H93" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K93" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L93" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M93" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P93" t="n">
         <v>0.1</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R93" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="94">
@@ -5697,40 +5697,40 @@
         <v>-1</v>
       </c>
       <c r="G94" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H94" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K94" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L94" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M94" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P94" t="n">
         <v>0.1</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R94" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="95">
@@ -5753,40 +5753,40 @@
         <v>-1</v>
       </c>
       <c r="G95" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H95" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K95" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L95" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M95" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P95" t="n">
         <v>0.1</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R95" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="96">
@@ -5809,40 +5809,40 @@
         <v>-1</v>
       </c>
       <c r="G96" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H96" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J96" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K96" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L96" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M96" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P96" t="n">
         <v>0.1</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R96" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="97">
@@ -5865,40 +5865,40 @@
         <v>-1</v>
       </c>
       <c r="G97" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H97" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K97" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L97" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M97" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P97" t="n">
         <v>0.1</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R97" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="98">
@@ -5921,40 +5921,40 @@
         <v>-1</v>
       </c>
       <c r="G98" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H98" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K98" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L98" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M98" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P98" t="n">
         <v>0.1</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R98" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="99">
@@ -5977,40 +5977,40 @@
         <v>-1</v>
       </c>
       <c r="G99" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H99" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K99" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L99" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M99" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P99" t="n">
         <v>0.1</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R99" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="100">
@@ -6033,40 +6033,40 @@
         <v>-1</v>
       </c>
       <c r="G100" t="n">
-        <v>19.94083783070583</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H100" t="n">
-        <v>44.81658687127186</v>
+        <v>44.63077595665684</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K100" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L100" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M100" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0.3079312978006187</v>
+        <v>0.3056812011510172</v>
       </c>
       <c r="P100" t="n">
         <v>0.1</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.2177136450022853</v>
+        <v>0.2153827049999733</v>
       </c>
       <c r="R100" t="n">
-        <v>0.4049450467220087</v>
+        <v>0.4029067436371686</v>
       </c>
     </row>
     <row r="101">
@@ -6089,40 +6089,40 @@
         <v>-1</v>
       </c>
       <c r="G101" t="n">
-        <v>20.03180469176014</v>
+        <v>19.64917156981683</v>
       </c>
       <c r="H101" t="n">
-        <v>50.19735438297194</v>
+        <v>50.08723746674187</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3046669934714079</v>
+        <v>0.3398195138138262</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9700702872104708</v>
+        <v>0.9790838759766398</v>
       </c>
       <c r="K101" t="n">
-        <v>1.747465619844266</v>
+        <v>1.755395641454819</v>
       </c>
       <c r="L101" t="n">
-        <v>1.979473745277679</v>
+        <v>2.007320011103563</v>
       </c>
       <c r="M101" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0.05911175857083146</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0.2852348647723939</v>
+        <v>0.2817634552922839</v>
       </c>
       <c r="P101" t="n">
         <v>0.1</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.2007870745776996</v>
+        <v>0.1974234622711525</v>
       </c>
       <c r="R101" t="n">
-        <v>0.3766844999042991</v>
+        <v>0.3732688638945109</v>
       </c>
     </row>
   </sheetData>
